--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_ANAIM/Hôpital_ANAIM.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_ANAIM/Hôpital_ANAIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_ANAIM</t>
+          <t>Hôpital_ANAIM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital ANAIM de Kamsar est un établissement de santé privé de Guinée. Il est situé dans la ville industrielle de Kamsar[1],[2].
+L'hôpital ANAIM de Kamsar est un établissement de santé privé de Guinée. Il est situé dans la ville industrielle de Kamsar,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_ANAIM</t>
+          <t>Hôpital_ANAIM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est créé en 1968 en tant que dispensaire pour les familles et travailleurs de la compagnie des bauxites de Guinée (CBG) et de l'office d'aménagement des Boké en abrégé (OFAB).
 En 1995, il devient l'hôpital ANAIM Kamsar.
-Administrateur
-Depuis le 1er octobre 1968 à nos jours, l'hôpital ANAIM a connu plusieurs administrations.
-L'actuel administrateur est Kaba Mandiaye et Dr Traoré Amadou, médecin chef[3].
 </t>
         </is>
       </c>
@@ -529,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_ANAIM</t>
+          <t>Hôpital_ANAIM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +555,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Administrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 1er octobre 1968 à nos jours, l'hôpital ANAIM a connu plusieurs administrations.
+L'actuel administrateur est Kaba Mandiaye et Dr Traoré Amadou, médecin chef.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_ANAIM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_ANAIM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Espaces de soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Urgences médico-chirurgicales
 Urgences pédiatriques
